--- a/score.xlsx
+++ b/score.xlsx
@@ -374,7 +374,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>60625.98828125</v>
+        <v>60559.875</v>
       </c>
       <c r="B2" t="n">
         <v>58944</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>75966.265625</v>
+        <v>77994.046875</v>
       </c>
       <c r="B3" t="n">
         <v>70920</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>75434.8984375</v>
+        <v>74448.390625</v>
       </c>
       <c r="B4" t="n">
         <v>76258</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>79907.640625</v>
+        <v>84698.484375</v>
       </c>
       <c r="B5" t="n">
         <v>79406</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>80466.703125</v>
+        <v>78457.7734375</v>
       </c>
       <c r="B6" t="n">
         <v>81393</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>77325.4140625</v>
+        <v>79419.09375</v>
       </c>
       <c r="B7" t="n">
         <v>82076</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>74203.5625</v>
+        <v>75404.0546875</v>
       </c>
       <c r="B8" t="n">
         <v>70700</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>66568.484375</v>
+        <v>71696.3515625</v>
       </c>
       <c r="B9" t="n">
         <v>69798</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="n">
-        <v>82354.6796875</v>
+        <v>87010.4609375</v>
       </c>
       <c r="B10" t="n">
         <v>86306</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="n">
-        <v>86892.3984375</v>
+        <v>86623.234375</v>
       </c>
       <c r="B11" t="n">
         <v>86286</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="n">
-        <v>85242.2578125</v>
+        <v>85542.9453125</v>
       </c>
       <c r="B12" t="n">
         <v>86710</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="n">
-        <v>86220.3046875</v>
+        <v>87171.3984375</v>
       </c>
       <c r="B13" t="n">
         <v>87591</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="n">
-        <v>85407.2265625</v>
+        <v>85574.96875</v>
       </c>
       <c r="B14" t="n">
         <v>88080</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="n">
-        <v>75479.5390625</v>
+        <v>75665.7109375</v>
       </c>
       <c r="B15" t="n">
         <v>76999</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="n">
-        <v>69273.9921875</v>
+        <v>69448.0859375</v>
       </c>
       <c r="B16" t="n">
         <v>73794</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="n">
-        <v>85146.21875</v>
+        <v>87913.96875</v>
       </c>
       <c r="B17" t="n">
         <v>90695</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="n">
-        <v>88557.171875</v>
+        <v>89092.578125</v>
       </c>
       <c r="B18" t="n">
         <v>92478</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="n">
-        <v>90807.5234375</v>
+        <v>92786.8125</v>
       </c>
       <c r="B19" t="n">
         <v>90399</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="n">
-        <v>88064.34375</v>
+        <v>89681.90625</v>
       </c>
       <c r="B20" t="n">
         <v>90682</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="n">
-        <v>89190.046875</v>
+        <v>89469.71875</v>
       </c>
       <c r="B21" t="n">
         <v>90678</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="n">
-        <v>79470.6484375</v>
+        <v>78097.15625</v>
       </c>
       <c r="B22" t="n">
         <v>77487</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="n">
-        <v>70541.328125</v>
+        <v>71231.2109375</v>
       </c>
       <c r="B23" t="n">
         <v>72063</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="n">
-        <v>82409.125</v>
+        <v>83282.53125</v>
       </c>
       <c r="B24" t="n">
         <v>82882</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="n">
-        <v>84872.984375</v>
+        <v>81973.2109375</v>
       </c>
       <c r="B25" t="n">
         <v>83087</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="n">
-        <v>85065.15625</v>
+        <v>83776.0234375</v>
       </c>
       <c r="B26" t="n">
         <v>82486</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="n">
-        <v>86831.5</v>
+        <v>84242.828125</v>
       </c>
       <c r="B27" t="n">
         <v>82283</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="n">
-        <v>84613.65625</v>
+        <v>84444.3671875</v>
       </c>
       <c r="B28" t="n">
         <v>81589</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="n">
-        <v>78717.6015625</v>
+        <v>74243.7734375</v>
       </c>
       <c r="B29" t="n">
         <v>74087</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="n">
-        <v>73519.5234375</v>
+        <v>76150.8203125</v>
       </c>
       <c r="B30" t="n">
         <v>74791</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="n">
-        <v>87355.7890625</v>
+        <v>86331.5546875</v>
       </c>
       <c r="B31" t="n">
         <v>88816</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="n">
-        <v>86041.5859375</v>
+        <v>92754.703125</v>
       </c>
       <c r="B32" t="n">
         <v>88893</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="n">
-        <v>87143.1328125</v>
+        <v>88272.296875</v>
       </c>
       <c r="B33" t="n">
         <v>88955</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="n">
-        <v>88109.640625</v>
+        <v>89142.03125</v>
       </c>
       <c r="B34" t="n">
         <v>88582</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="n">
-        <v>85112.5390625</v>
+        <v>87622.6328125</v>
       </c>
       <c r="B35" t="n">
         <v>87807</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="n">
-        <v>76440.125</v>
+        <v>76030.796875</v>
       </c>
       <c r="B36" t="n">
         <v>75167</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="n">
-        <v>70969.0625</v>
+        <v>70409.21875</v>
       </c>
       <c r="B37" t="n">
         <v>73509</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="n">
-        <v>82991.25</v>
+        <v>81510.7890625</v>
       </c>
       <c r="B38" t="n">
         <v>91405</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="n">
-        <v>88878.9296875</v>
+        <v>91927.328125</v>
       </c>
       <c r="B39" t="n">
         <v>91548</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="n">
-        <v>89489.71875</v>
+        <v>90348.0078125</v>
       </c>
       <c r="B40" t="n">
         <v>83275</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="n">
-        <v>88917.3671875</v>
+        <v>93347.765625</v>
       </c>
       <c r="B41" t="n">
         <v>88720</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="n">
-        <v>89246.921875</v>
+        <v>94855.640625</v>
       </c>
       <c r="B42" t="n">
         <v>80289</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="n">
-        <v>73631.78125</v>
+        <v>69279.7734375</v>
       </c>
       <c r="B43" t="n">
         <v>67131</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="n">
-        <v>69386.515625</v>
+        <v>70115.21875</v>
       </c>
       <c r="B44" t="n">
         <v>66730</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="n">
-        <v>82360.46875</v>
+        <v>80742.1640625</v>
       </c>
       <c r="B45" t="n">
         <v>83917</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="n">
-        <v>86127.65625</v>
+        <v>81696.140625</v>
       </c>
       <c r="B46" t="n">
         <v>84025</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="n">
-        <v>80345.7109375</v>
+        <v>83618.90625</v>
       </c>
       <c r="B47" t="n">
         <v>87911</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="n">
-        <v>87628.3125</v>
+        <v>87973.828125</v>
       </c>
       <c r="B48" t="n">
         <v>84786</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYJ\Documents\GitHub\Paper_Energy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DF550B80-1F8C-419D-B44D-1A75C4A1E48D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Predict</t>
   </si>
@@ -26,20 +31,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,16 +66,1243 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>60559.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77994.046875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74448.390625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84698.484375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78457.7734375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79419.09375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75404.0546875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71696.3515625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87010.4609375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86623.234375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85542.9453125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87171.3984375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85574.96875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75665.7109375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69448.0859375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87913.96875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89092.578125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92786.8125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89681.90625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89469.71875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78097.15625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71231.2109375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83282.53125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81973.2109375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83776.0234375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84242.828125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84444.3671875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74243.7734375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76150.8203125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86331.5546875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92754.703125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88272.296875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89142.03125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87622.6328125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76030.796875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70409.21875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81510.7890625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>91927.328125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90348.0078125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93347.765625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>94855.640625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>69279.7734375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70115.21875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80742.1640625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>81696.140625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83618.90625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87973.828125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC4D-4830-B107-F87BD223BABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Truth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>58944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86710</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88080</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73794</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90695</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92478</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90682</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90678</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77487</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72063</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82882</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82486</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82283</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81589</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74087</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74791</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88955</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88582</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87807</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>73509</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91405</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>91548</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83275</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88720</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67131</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66730</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>83917</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84025</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC4D-4830-B107-F87BD223BABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="401158744"/>
+        <c:axId val="401160712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="401158744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401160712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="401160712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401158744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB66DC5-E367-4624-B095-CD484DB93A73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,20 +1589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,383 +1606,385 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>60559.875</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>58944</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>77994.046875</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>70920</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>74448.390625</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>76258</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>84698.484375</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>79406</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>78457.7734375</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>81393</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>79419.09375</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>82076</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>75404.0546875</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>70700</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>71696.3515625</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>69798</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>87010.4609375</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>86306</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>86623.234375</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>86286</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>85542.9453125</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>86710</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>87171.3984375</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>87591</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>85574.96875</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>88080</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>75665.7109375</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>76999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>69448.0859375</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>73794</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>87913.96875</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>90695</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>89092.578125</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>92478</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>92786.8125</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>90399</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>89681.90625</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>90682</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>89469.71875</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>90678</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>78097.15625</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>77487</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>71231.2109375</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>72063</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>83282.53125</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>82882</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>81973.2109375</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>83087</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>83776.0234375</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>82486</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>84242.828125</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>82283</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>84444.3671875</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>81589</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>74243.7734375</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>74087</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>76150.8203125</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>74791</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>86331.5546875</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>88816</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>92754.703125</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>88893</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>88272.296875</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>88955</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>89142.03125</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>88582</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>87622.6328125</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>87807</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>76030.796875</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>75167</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>70409.21875</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>73509</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>81510.7890625</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>91405</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>91927.328125</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>91548</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>90348.0078125</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>83275</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>93347.765625</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>88720</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
         <v>94855.640625</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>80289</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
         <v>69279.7734375</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>67131</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
         <v>70115.21875</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>66730</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
         <v>80742.1640625</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>83917</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>81696.140625</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>84025</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
         <v>83618.90625</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>87911</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
         <v>87973.828125</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>84786</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/score.xlsx
+++ b/score.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="8988" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8988" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -527,7 +527,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
@@ -592,7 +592,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
@@ -630,7 +630,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR"/>
         </a:p>
@@ -981,327 +981,327 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>60559.875</v>
+        <v>71063.6796875</v>
       </c>
       <c r="B2" t="n">
-        <v>58944</v>
+        <v>73794</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>77994.046875</v>
+        <v>88292.2421875</v>
       </c>
       <c r="B3" t="n">
-        <v>70920</v>
+        <v>90695</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>74448.390625</v>
+        <v>89393.1015625</v>
       </c>
       <c r="B4" t="n">
-        <v>76258</v>
+        <v>92478</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>84698.484375</v>
+        <v>91845.453125</v>
       </c>
       <c r="B5" t="n">
-        <v>79406</v>
+        <v>90399</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>78457.7734375</v>
+        <v>90094.953125</v>
       </c>
       <c r="B6" t="n">
-        <v>81393</v>
+        <v>90682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="n">
-        <v>79419.09375</v>
+        <v>88653.46875</v>
       </c>
       <c r="B7" t="n">
-        <v>82076</v>
+        <v>90678</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="n">
-        <v>75404.0546875</v>
+        <v>79403.953125</v>
       </c>
       <c r="B8" t="n">
-        <v>70700</v>
+        <v>77487</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="n">
-        <v>71696.3515625</v>
+        <v>72670.03125</v>
       </c>
       <c r="B9" t="n">
-        <v>69798</v>
+        <v>72063</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="n">
-        <v>87010.4609375</v>
+        <v>85002.28125</v>
       </c>
       <c r="B10" t="n">
-        <v>86306</v>
+        <v>82882</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="n">
-        <v>86623.234375</v>
+        <v>83262.5390625</v>
       </c>
       <c r="B11" t="n">
-        <v>86286</v>
+        <v>83087</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="n">
-        <v>85542.9453125</v>
+        <v>81801.4921875</v>
       </c>
       <c r="B12" t="n">
-        <v>86710</v>
+        <v>82486</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="n">
-        <v>87171.3984375</v>
+        <v>85283.1484375</v>
       </c>
       <c r="B13" t="n">
-        <v>87591</v>
+        <v>82283</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="n">
-        <v>85574.96875</v>
+        <v>83030.03125</v>
       </c>
       <c r="B14" t="n">
-        <v>88080</v>
+        <v>81589</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="n">
-        <v>75665.7109375</v>
+        <v>71299.5546875</v>
       </c>
       <c r="B15" t="n">
-        <v>76999</v>
+        <v>74087</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="n">
-        <v>69448.0859375</v>
+        <v>73009.6875</v>
       </c>
       <c r="B16" t="n">
-        <v>73794</v>
+        <v>74791</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="n">
-        <v>87913.96875</v>
+        <v>86354.828125</v>
       </c>
       <c r="B17" t="n">
-        <v>90695</v>
+        <v>88816</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="n">
-        <v>89092.578125</v>
+        <v>88248.140625</v>
       </c>
       <c r="B18" t="n">
-        <v>92478</v>
+        <v>88893</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="n">
-        <v>92786.8125</v>
+        <v>88017.546875</v>
       </c>
       <c r="B19" t="n">
-        <v>90399</v>
+        <v>88955</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="n">
-        <v>89681.90625</v>
+        <v>90335.953125</v>
       </c>
       <c r="B20" t="n">
-        <v>90682</v>
+        <v>88582</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="n">
-        <v>89469.71875</v>
+        <v>87627.859375</v>
       </c>
       <c r="B21" t="n">
-        <v>90678</v>
+        <v>87807</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="n">
-        <v>78097.15625</v>
+        <v>76782.3203125</v>
       </c>
       <c r="B22" t="n">
-        <v>77487</v>
+        <v>75167</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="n">
-        <v>71231.2109375</v>
+        <v>69503.1171875</v>
       </c>
       <c r="B23" t="n">
-        <v>72063</v>
+        <v>73509</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="n">
-        <v>83282.53125</v>
+        <v>86264.765625</v>
       </c>
       <c r="B24" t="n">
-        <v>82882</v>
+        <v>91405</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="n">
-        <v>81973.2109375</v>
+        <v>90212.203125</v>
       </c>
       <c r="B25" t="n">
-        <v>83087</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="n">
-        <v>83776.0234375</v>
+        <v>91343.34375</v>
       </c>
       <c r="B26" t="n">
-        <v>82486</v>
+        <v>83275</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="n">
-        <v>84242.828125</v>
+        <v>82243.109375</v>
       </c>
       <c r="B27" t="n">
-        <v>82283</v>
+        <v>88720</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="n">
-        <v>84444.3671875</v>
+        <v>87751.3828125</v>
       </c>
       <c r="B28" t="n">
-        <v>81589</v>
+        <v>80289</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="n">
-        <v>74243.7734375</v>
+        <v>74190.8984375</v>
       </c>
       <c r="B29" t="n">
-        <v>74087</v>
+        <v>67131</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="n">
-        <v>76150.8203125</v>
+        <v>71756</v>
       </c>
       <c r="B30" t="n">
-        <v>74791</v>
+        <v>66730</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="n">
-        <v>86331.5546875</v>
+        <v>82391.640625</v>
       </c>
       <c r="B31" t="n">
-        <v>88816</v>
+        <v>83917</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="n">
-        <v>92754.703125</v>
+        <v>81545.328125</v>
       </c>
       <c r="B32" t="n">
-        <v>88893</v>
+        <v>84025</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="n">
-        <v>88272.296875</v>
+        <v>79988.5</v>
       </c>
       <c r="B33" t="n">
-        <v>88955</v>
+        <v>87911</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="n">
-        <v>89142.03125</v>
+        <v>90401.765625</v>
       </c>
       <c r="B34" t="n">
-        <v>88582</v>
+        <v>84786</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="n">
-        <v>87622.6328125</v>
+        <v>92861.390625</v>
       </c>
       <c r="B35" t="n">
-        <v>87807</v>
+        <v>80289</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="n">
-        <v>76030.796875</v>
+        <v>87929.953125</v>
       </c>
       <c r="B36" t="n">
-        <v>75167</v>
+        <v>67131</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="n">
-        <v>70409.21875</v>
+        <v>85454.375</v>
       </c>
       <c r="B37" t="n">
-        <v>73509</v>
+        <v>66730</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="n">
-        <v>81510.7890625</v>
+        <v>85738.1171875</v>
       </c>
       <c r="B38" t="n">
-        <v>91405</v>
+        <v>83917</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="n">
-        <v>91927.328125</v>
+        <v>86139.0859375</v>
       </c>
       <c r="B39" t="n">
-        <v>91548</v>
+        <v>84025</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="n">
-        <v>90348.0078125</v>
+        <v>86065.609375</v>
       </c>
       <c r="B40" t="n">
-        <v>83275</v>
+        <v>87911</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="n">
-        <v>93347.765625</v>
+        <v>85982.453125</v>
       </c>
       <c r="B41" t="n">
-        <v>88720</v>
+        <v>84786</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="n">
-        <v>94855.640625</v>
+        <v>87461.453125</v>
       </c>
       <c r="B42" t="n">
         <v>80289</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="n">
-        <v>69279.7734375</v>
+        <v>80277.1796875</v>
       </c>
       <c r="B43" t="n">
         <v>67131</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="n">
-        <v>70115.21875</v>
+        <v>61665.15234375</v>
       </c>
       <c r="B44" t="n">
         <v>66730</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="n">
-        <v>80742.1640625</v>
+        <v>85255.921875</v>
       </c>
       <c r="B45" t="n">
         <v>83917</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="n">
-        <v>81696.140625</v>
+        <v>85067.4609375</v>
       </c>
       <c r="B46" t="n">
         <v>84025</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="n">
-        <v>83618.90625</v>
+        <v>78854.5625</v>
       </c>
       <c r="B47" t="n">
         <v>87911</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="n">
-        <v>87973.828125</v>
+        <v>90436.234375</v>
       </c>
       <c r="B48" t="n">
         <v>84786</v>
